--- a/Student Import.xlsx
+++ b/Student Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/iot-sat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CA9D04-3F87-4CBB-8167-1232B67BD159}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31155D0-1473-4941-92A9-5B75712E1EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F75CDB6-CD56-4F0B-BBDB-112D6480429C}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="23260" windowHeight="12460" xr2:uid="{1F75CDB6-CD56-4F0B-BBDB-112D6480429C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>UID</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Angela</t>
+  </si>
+  <si>
+    <t>Mathilda Dela Cruz</t>
+  </si>
+  <si>
+    <t>Pepito Manaloto</t>
   </si>
 </sst>
 </file>
@@ -162,9 +168,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,7 +208,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -308,7 +314,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -450,7 +456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -458,25 +464,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D31B061-B2C1-4F2A-B35C-B6F07476A7DC}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,8 +508,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>123455</v>
       </c>
@@ -527,8 +537,11 @@
       <c r="H2">
         <v>987654321</v>
       </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>123456</v>
       </c>
@@ -549,6 +562,9 @@
       </c>
       <c r="H3">
         <v>907654738</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
